--- a/Jogos_do_Dia/2023-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1114,28 +1114,28 @@
         <v>3.04</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1155,13 +1155,13 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="H3">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="I3">
         <v>1.05</v>
@@ -1176,10 +1176,10 @@
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="N3">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
         <v>1.36</v>
@@ -1259,13 +1259,13 @@
         <v>127</v>
       </c>
       <c r="F4">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="I4">
         <v>1.11</v>
@@ -1280,10 +1280,10 @@
         <v>2.43</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="N4">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -1343,7 +1343,7 @@
         <v>3.34</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1363,13 +1363,13 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G5">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1467,52 +1467,52 @@
         <v>129</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V6">
         <v>0.82</v>
@@ -1530,22 +1530,22 @@
         <v>2.54</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>130</v>
       </c>
       <c r="F7">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H7">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1592,10 +1592,10 @@
         <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="N7">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="O7">
         <v>1.29</v>
@@ -1634,28 +1634,28 @@
         <v>3.06</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1675,13 +1675,13 @@
         <v>131</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G8">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H8">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1696,10 +1696,10 @@
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="N8">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="O8">
         <v>1.36</v>
@@ -1779,13 +1779,13 @@
         <v>132</v>
       </c>
       <c r="F9">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="G9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
         <v>1.06</v>
@@ -1800,10 +1800,10 @@
         <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="N9">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O9">
         <v>1.36</v>
@@ -1842,28 +1842,28 @@
         <v>3.35</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1883,7 +1883,7 @@
         <v>133</v>
       </c>
       <c r="F10">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="G10">
         <v>3.35</v>
@@ -1904,10 +1904,10 @@
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="N10">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="O10">
         <v>1.41</v>
@@ -1987,13 +1987,13 @@
         <v>134</v>
       </c>
       <c r="F11">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H11">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="I11">
         <v>1.03</v>
@@ -2011,7 +2011,7 @@
         <v>1.7</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2050,28 +2050,28 @@
         <v>3.41</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -2091,25 +2091,25 @@
         <v>135</v>
       </c>
       <c r="F12">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="G12">
         <v>3.55</v>
       </c>
       <c r="H12">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M12">
         <v>1.6</v>
@@ -2118,10 +2118,10 @@
         <v>2.2</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
         <v>1.57</v>
@@ -2130,13 +2130,13 @@
         <v>2.25</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V12">
         <v>1.78</v>
@@ -2154,28 +2154,28 @@
         <v>3.54</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2195,37 +2195,37 @@
         <v>136</v>
       </c>
       <c r="F13">
+        <v>4.8</v>
+      </c>
+      <c r="G13">
+        <v>4.2</v>
+      </c>
+      <c r="H13">
+        <v>1.59</v>
+      </c>
+      <c r="I13">
+        <v>1.03</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>1.18</v>
+      </c>
+      <c r="L13">
         <v>4.5</v>
       </c>
-      <c r="G13">
-        <v>3.6</v>
-      </c>
-      <c r="H13">
-        <v>1.61</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="Q13">
         <v>1.67</v>
@@ -2234,13 +2234,13 @@
         <v>2.1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -2258,28 +2258,28 @@
         <v>3.4</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2299,52 +2299,52 @@
         <v>137</v>
       </c>
       <c r="F14">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H14">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N14">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V14">
         <v>1.44</v>
@@ -2362,28 +2362,28 @@
         <v>2.79</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2403,52 +2403,52 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H15">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Q15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R15">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
         <v>1.22</v>
@@ -2466,28 +2466,28 @@
         <v>2.51</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2507,25 +2507,25 @@
         <v>139</v>
       </c>
       <c r="F16">
+        <v>4.7</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>3.6</v>
-      </c>
       <c r="H16">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>1.7</v>
@@ -2534,25 +2534,25 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R16">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V16">
         <v>1.67</v>
@@ -2570,28 +2570,28 @@
         <v>3.55</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2611,13 +2611,13 @@
         <v>140</v>
       </c>
       <c r="F17">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="G17">
         <v>3.5</v>
       </c>
       <c r="H17">
-        <v>3.94</v>
+        <v>3.55</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2632,10 +2632,10 @@
         <v>3.3</v>
       </c>
       <c r="M17">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="N17">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="O17">
         <v>1.4</v>
@@ -2683,10 +2683,10 @@
         <v>2.51</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF17">
         <v>1.65</v>
@@ -2715,13 +2715,13 @@
         <v>141</v>
       </c>
       <c r="F18">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G18">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H18">
-        <v>4.99</v>
+        <v>4.5</v>
       </c>
       <c r="I18">
         <v>1.05</v>
@@ -2736,10 +2736,10 @@
         <v>3.5</v>
       </c>
       <c r="M18">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="N18">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O18">
         <v>1.39</v>
@@ -2819,13 +2819,13 @@
         <v>142</v>
       </c>
       <c r="F19">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="G19">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="H19">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2840,10 +2840,10 @@
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="N19">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
         <v>1.36</v>
@@ -2923,13 +2923,13 @@
         <v>143</v>
       </c>
       <c r="F20">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -2944,10 +2944,10 @@
         <v>3.5</v>
       </c>
       <c r="M20">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N20">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="O20">
         <v>1.36</v>
@@ -2986,19 +2986,19 @@
         <v>3</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF20">
         <v>1.65</v>
@@ -3027,13 +3027,13 @@
         <v>144</v>
       </c>
       <c r="F21">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H21">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I21">
         <v>1.06</v>
@@ -3048,10 +3048,10 @@
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O21">
         <v>1.42</v>
@@ -3090,28 +3090,28 @@
         <v>2.74</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3131,13 +3131,13 @@
         <v>145</v>
       </c>
       <c r="F22">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G22">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="H22">
-        <v>5.35</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -3146,16 +3146,16 @@
         <v>7.5</v>
       </c>
       <c r="K22">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L22">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>2.19</v>
       </c>
       <c r="N22">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
         <v>1.49</v>
@@ -3215,7 +3215,7 @@
         <v>3.65</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3235,13 +3235,13 @@
         <v>146</v>
       </c>
       <c r="F23">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="G23">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H23">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="I23">
         <v>1.04</v>
@@ -3256,10 +3256,10 @@
         <v>3.67</v>
       </c>
       <c r="M23">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="N23">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
         <v>1.38</v>
@@ -3402,28 +3402,28 @@
         <v>2.76</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3506,28 +3506,28 @@
         <v>2.79</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3610,28 +3610,28 @@
         <v>2.8</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3714,28 +3714,28 @@
         <v>2.63</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3818,28 +3818,28 @@
         <v>3.24</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3922,28 +3922,28 @@
         <v>2.79</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -4026,28 +4026,28 @@
         <v>2.87</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -4130,28 +4130,28 @@
         <v>2.77</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4234,28 +4234,28 @@
         <v>2.67</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -4338,28 +4338,28 @@
         <v>3.66</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4379,13 +4379,13 @@
         <v>157</v>
       </c>
       <c r="F34">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="G34">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I34">
         <v>1.05</v>
@@ -4400,10 +4400,10 @@
         <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="N34">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O34">
         <v>1.36</v>
@@ -4442,28 +4442,28 @@
         <v>3.61</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4483,13 +4483,13 @@
         <v>158</v>
       </c>
       <c r="F35">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G35">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H35">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="I35">
         <v>1.05</v>
@@ -4504,10 +4504,10 @@
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O35">
         <v>1.36</v>
@@ -4546,28 +4546,28 @@
         <v>3.08</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF35">
         <v>1.88</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4587,25 +4587,25 @@
         <v>159</v>
       </c>
       <c r="F36">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G36">
         <v>3.45</v>
       </c>
       <c r="H36">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36">
         <v>1.62</v>
@@ -4614,25 +4614,25 @@
         <v>2.15</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q36">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V36">
         <v>1.25</v>
@@ -4691,13 +4691,13 @@
         <v>160</v>
       </c>
       <c r="F37">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="G37">
-        <v>5.51</v>
+        <v>4.8</v>
       </c>
       <c r="H37">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="I37">
         <v>1.05</v>
@@ -4712,10 +4712,10 @@
         <v>3.75</v>
       </c>
       <c r="M37">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="N37">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O37">
         <v>1.37</v>
@@ -4795,37 +4795,37 @@
         <v>161</v>
       </c>
       <c r="F38">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="G38">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H38">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>1.73</v>
@@ -4834,13 +4834,13 @@
         <v>2</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V38">
         <v>1.67</v>
@@ -4858,28 +4858,28 @@
         <v>2.94</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -4899,13 +4899,13 @@
         <v>162</v>
       </c>
       <c r="F39">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G39">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="H39">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="I39">
         <v>1.04</v>
@@ -4923,7 +4923,7 @@
         <v>1.81</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O39">
         <v>1.36</v>
@@ -5003,13 +5003,13 @@
         <v>163</v>
       </c>
       <c r="F40">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="G40">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="H40">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="I40">
         <v>1.09</v>
@@ -5024,7 +5024,7 @@
         <v>2.62</v>
       </c>
       <c r="M40">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
         <v>1.53</v>
@@ -5107,13 +5107,13 @@
         <v>164</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G41">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="H41">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I41">
         <v>1.04</v>
@@ -5128,10 +5128,10 @@
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N41">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="O41">
         <v>1.34</v>
@@ -5211,13 +5211,13 @@
         <v>165</v>
       </c>
       <c r="F42">
+        <v>3.35</v>
+      </c>
+      <c r="G42">
         <v>3.25</v>
       </c>
-      <c r="G42">
-        <v>3.1</v>
-      </c>
       <c r="H42">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="I42">
         <v>1.05</v>
@@ -5235,7 +5235,7 @@
         <v>1.95</v>
       </c>
       <c r="N42">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O42">
         <v>1.39</v>
@@ -5315,13 +5315,13 @@
         <v>166</v>
       </c>
       <c r="F43">
-        <v>9.119999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="G43">
-        <v>5.43</v>
+        <v>4.9</v>
       </c>
       <c r="H43">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I43">
         <v>1.03</v>
@@ -5336,10 +5336,10 @@
         <v>3.75</v>
       </c>
       <c r="M43">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="O43">
         <v>1.33</v>
@@ -5419,13 +5419,13 @@
         <v>167</v>
       </c>
       <c r="F44">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="G44">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H44">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="I44">
         <v>1.08</v>
@@ -5440,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="M44">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="N44">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
         <v>1.4</v>
@@ -5482,28 +5482,28 @@
         <v>2.35</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5523,13 +5523,13 @@
         <v>168</v>
       </c>
       <c r="F45">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="G45">
         <v>3.25</v>
       </c>
       <c r="H45">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="I45">
         <v>1.1</v>
@@ -5544,10 +5544,10 @@
         <v>2.75</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="N45">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="O45">
         <v>1.44</v>
@@ -5586,28 +5586,28 @@
         <v>2.66</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5627,13 +5627,13 @@
         <v>169</v>
       </c>
       <c r="F46">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="G46">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="H46">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -5648,10 +5648,10 @@
         <v>3</v>
       </c>
       <c r="M46">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N46">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="O46">
         <v>1.4</v>
@@ -5690,28 +5690,28 @@
         <v>2.32</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="47" spans="1:34">
@@ -5731,13 +5731,13 @@
         <v>170</v>
       </c>
       <c r="F47">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G47">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H47">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="I47">
         <v>1.07</v>
@@ -5752,10 +5752,10 @@
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N47">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O47">
         <v>1.4</v>
@@ -5794,28 +5794,28 @@
         <v>2.3</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="48" spans="1:34">
@@ -5835,52 +5835,52 @@
         <v>171</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
         <v>2.33</v>
@@ -5939,13 +5939,13 @@
         <v>172</v>
       </c>
       <c r="F49">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="G49">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H49">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="I49">
         <v>1.04</v>
@@ -5960,10 +5960,10 @@
         <v>4</v>
       </c>
       <c r="M49">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="N49">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O49">
         <v>1.33</v>
@@ -6043,13 +6043,13 @@
         <v>173</v>
       </c>
       <c r="F50">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="G50">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="H50">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I50">
         <v>1.16</v>
@@ -6064,10 +6064,10 @@
         <v>2.06</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="N50">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="O50">
         <v>1.72</v>
@@ -6147,13 +6147,13 @@
         <v>174</v>
       </c>
       <c r="F51">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="G51">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="H51">
-        <v>3.73</v>
+        <v>3.3</v>
       </c>
       <c r="I51">
         <v>1.07</v>
@@ -6168,10 +6168,10 @@
         <v>3.1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O51">
         <v>1.45</v>
@@ -6251,13 +6251,13 @@
         <v>175</v>
       </c>
       <c r="F52">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="G52">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="I52">
         <v>1.13</v>
@@ -6266,16 +6266,16 @@
         <v>6</v>
       </c>
       <c r="K52">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="L52">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N52">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="O52">
         <v>1.62</v>
@@ -6427,19 +6427,19 @@
         <v>1.82</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF53">
         <v>1.9</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -6459,52 +6459,52 @@
         <v>177</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="V54">
         <v>2.85</v>
@@ -6563,13 +6563,13 @@
         <v>178</v>
       </c>
       <c r="F55">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G55">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
       <c r="H55">
-        <v>16.87</v>
+        <v>15</v>
       </c>
       <c r="I55">
         <v>1.02</v>
@@ -6584,10 +6584,10 @@
         <v>4.75</v>
       </c>
       <c r="M55">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="O55">
         <v>1.28</v>
@@ -6667,52 +6667,52 @@
         <v>179</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V56">
         <v>0.33</v>
@@ -6730,28 +6730,28 @@
         <v>2.6</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="57" spans="1:34">
@@ -6771,13 +6771,13 @@
         <v>180</v>
       </c>
       <c r="F57">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="G57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H57">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="I57">
         <v>1.05</v>
@@ -6792,10 +6792,10 @@
         <v>3.5</v>
       </c>
       <c r="M57">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="N57">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="O57">
         <v>1.38</v>
@@ -6947,19 +6947,19 @@
         <v>5.15</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="59" spans="1:34">
@@ -7051,19 +7051,19 @@
         <v>2.42</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
